--- a/Instancia.xlsx
+++ b/Instancia.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udistritaleduco-my.sharepoint.com/personal/haavilac_udistrital_edu_co/Documents/Universidad/Maestría/Técnicas avanzadas de optimización/Taller 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDF7575-F2D8-4E99-BA02-2FEC8628E7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CDDF7575-F2D8-4E99-BA02-2FEC8628E7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E09B99A-CB86-4919-BD5E-291AD8E756E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5B1D3A9F-5BA9-4D36-9ED8-A740B5215C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -160,16 +160,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>246</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -181,16 +181,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>249</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>167</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,52 +298,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>307</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>372</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>354</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>373</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,52 +355,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>297</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>326</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>318</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>308</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>194</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>177</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$B$3:$B$6</c:f>
+              <c:f>Hoja2!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -672,7 +672,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$C$3:$C$6</c:f>
+              <c:f>Hoja2!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -729,7 +729,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$B$2</c:f>
+              <c:f>Hoja2!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -741,7 +741,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$C$2</c:f>
+              <c:f>Hoja2!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -789,7 +789,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$B$7:$B$22</c:f>
+              <c:f>Hoja2!$B$7:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -846,7 +846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Hoja1 (2)'!$C$7:$C$22</c:f>
+              <c:f>Hoja2!$C$7:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H3">
         <f ca="1">H$2+(1)*RANDBETWEEN(25,50)</f>
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I3">
         <f ca="1">I$2+(1)*RANDBETWEEN(25,50)</f>
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="H4">
         <f ca="1">H$2+(-1)*RANDBETWEEN(25,50)</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I4">
         <f t="shared" ref="H4:I6" ca="1" si="0">I$2+(1)*RANDBETWEEN(25,50)</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -2704,11 +2704,11 @@
       </c>
       <c r="H5">
         <f ca="1">H$2+(-1)*RANDBETWEEN(25,50)</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I5">
         <f ca="1">I$2+(-1)*RANDBETWEEN(25,50)</f>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I6">
         <f ca="1">I$2+(-1)*RANDBETWEEN(25,50)</f>
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
@@ -2742,11 +2742,11 @@
       </c>
       <c r="D7">
         <f ca="1">RANDBETWEEN(0,50)+VLOOKUP($F7,$A$2:$C$5,2,0)*$A7</f>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <f ca="1">RANDBETWEEN(0,50)+VLOOKUP($F7,$A$2:$C$5,3,0)*$A7</f>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="H7">
         <f ca="1">VLOOKUP($F7,$G$3:$I$6,2,0)+D7</f>
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <f ca="1">VLOOKUP($F7,$G$3:$I$6,2,0)+E7</f>
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2775,11 +2775,11 @@
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D22" ca="1" si="1">RANDBETWEEN(0,50)+VLOOKUP($F8,$A$2:$C$5,2,0)*$A8</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E22" ca="1" si="2">RANDBETWEEN(0,50)+VLOOKUP($F8,$A$2:$C$5,3,0)*$A8</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2788,12 +2788,12 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <f ca="1">VLOOKUP($F8,$G$3:$I$6,2,0)+D8</f>
-        <v>307</v>
+        <f t="shared" ref="H8:H22" ca="1" si="3">VLOOKUP($F8,$G$3:$I$6,2,0)+D8</f>
+        <v>306</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I22" ca="1" si="3">VLOOKUP($F8,$G$3:$I$6,2,0)+E8</f>
-        <v>333</v>
+        <f t="shared" ref="I8:I22" ca="1" si="4">VLOOKUP($F8,$G$3:$I$6,2,0)+E8</f>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2821,12 +2821,12 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <f ca="1">VLOOKUP($F9,$G$3:$I$6,2,0)+D9</f>
-        <v>290</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>325</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="3"/>
-        <v>326</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2854,12 +2854,12 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <f ca="1">VLOOKUP($F10,$G$3:$I$6,2,0)+D10</f>
-        <v>288</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>322</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="3"/>
-        <v>318</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>-73</v>
+        <v>-74</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2887,12 +2887,12 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <f ca="1">VLOOKUP($F11,$G$3:$I$6,2,0)+D11</f>
-        <v>102</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="3"/>
-        <v>299</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>-87</v>
+        <v>-50</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2920,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <f ca="1">VLOOKUP($F12,$G$3:$I$6,2,0)+D12</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>123</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="3"/>
-        <v>310</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2940,11 +2940,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>-65</v>
+        <v>-84</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2953,12 +2953,12 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <f ca="1">VLOOKUP($F13,$G$3:$I$6,2,0)+D13</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="3"/>
-        <v>308</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
+        <v>-90</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2986,12 +2986,12 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f ca="1">VLOOKUP($F14,$G$3:$I$6,2,0)+D14</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>-79</v>
+        <v>-57</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3019,12 +3019,12 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <f ca="1">VLOOKUP($F15,$G$3:$I$6,2,0)+D15</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>114</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3039,11 +3039,11 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>-78</v>
+        <v>-63</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>-86</v>
+        <v>-82</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3052,12 +3052,12 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <f ca="1">VLOOKUP($F16,$G$3:$I$6,2,0)+D16</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3072,11 +3072,11 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-98</v>
+        <v>-80</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-59</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3085,12 +3085,12 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <f ca="1">VLOOKUP($F17,$G$3:$I$6,2,0)+D17</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3105,11 +3105,11 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-53</v>
+        <v>-92</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3118,12 +3118,12 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <f ca="1">VLOOKUP($F18,$G$3:$I$6,2,0)+D18</f>
-        <v>116</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3138,11 +3138,11 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-55</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -3151,12 +3151,12 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <f ca="1">VLOOKUP($F19,$G$3:$I$6,2,0)+D19</f>
-        <v>347</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>399</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="3"/>
-        <v>152</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>195</v>
       </c>
       <c r="N19">
         <v>200</v>
@@ -3177,11 +3177,11 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>-52</v>
+        <v>-93</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3190,12 +3190,12 @@
         <v>18</v>
       </c>
       <c r="H20">
-        <f ca="1">VLOOKUP($F20,$G$3:$I$6,2,0)+D20</f>
-        <v>372</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>353</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>157</v>
       </c>
       <c r="N20">
         <v>237</v>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>-83</v>
+        <v>-73</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -3229,12 +3229,12 @@
         <v>19</v>
       </c>
       <c r="H21">
-        <f ca="1">VLOOKUP($F21,$G$3:$I$6,2,0)+D21</f>
-        <v>354</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>359</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="3"/>
-        <v>163</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>177</v>
       </c>
       <c r="N21">
         <v>162</v>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>-69</v>
+        <v>-64</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -3268,12 +3268,12 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <f ca="1">VLOOKUP($F22,$G$3:$I$6,2,0)+D22</f>
-        <v>373</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>387</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="3"/>
-        <v>177</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>186</v>
       </c>
       <c r="N22">
         <v>150</v>
@@ -3448,7 +3448,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
